--- a/5-9 太平开发个人中心功能/服务详情展示内容.xlsx
+++ b/5-9 太平开发个人中心功能/服务详情展示内容.xlsx
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,23 +193,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,7 +549,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,117 +571,120 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -657,8 +692,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
